--- a/spliced/walkingToRunning/2023-04-03_16-54-49/gyroscope_selected.xlsx
+++ b/spliced/walkingToRunning/2023-04-03_16-54-49/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.015379755757749</v>
+        <v>0.4665061936658925</v>
       </c>
       <c r="B2" t="n">
-        <v>-3.799865007400513</v>
+        <v>-0.1984146457969052</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7140600681304932</v>
+        <v>0.8845337243641089</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9480579466394625</v>
+        <v>0.7887173727446912</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.158635705125103</v>
+        <v>-0.2283256008636717</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.216983846589626</v>
+        <v>-2.244795449808533</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.3824025334096443</v>
+        <v>2.415960978059204</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9166039158316155</v>
+        <v>-0.9742195974378011</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.483935629620275</v>
+        <v>-3.041498450671924</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.2129549734732704</v>
+        <v>-5.063323306102351</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.284775551627672</v>
+        <v>-1.817073576590591</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2467849605223773</v>
+        <v>2.776077873566551</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.4665061936658925</v>
+        <v>-6.820184679592355</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.1984146457969052</v>
+        <v>0.3425412797460279</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8845337243641089</v>
+        <v>5.666934162962662</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.7887173727446912</v>
+        <v>-0.2362654770122372</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.2283256008636717</v>
+        <v>5.465962034814462</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.244795449808533</v>
+        <v>3.005506543552197</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.415960978059204</v>
+        <v>4.696316433887858</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.9742195974378011</v>
+        <v>-2.277570799285295</v>
       </c>
       <c r="C8" t="n">
-        <v>-3.041498450671924</v>
+        <v>-2.875306896134922</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-5.063323306102351</v>
+        <v>6.539746003992415</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.817073576590591</v>
+        <v>-0.2706960135815262</v>
       </c>
       <c r="C9" t="n">
-        <v>2.776077873566551</v>
+        <v>-1.030937138725735</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-6.820184679592355</v>
+        <v>4.692681789398195</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3425412797460279</v>
+        <v>1.697400997666751</v>
       </c>
       <c r="C10" t="n">
-        <v>5.666934162962662</v>
+        <v>-1.396730149493496</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.2362654770122372</v>
+        <v>-4.347883439531461</v>
       </c>
       <c r="B11" t="n">
-        <v>5.465962034814462</v>
+        <v>-0.5452939552419174</v>
       </c>
       <c r="C11" t="n">
-        <v>3.005506543552197</v>
+        <v>0.9300998636320361</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4.696316433887858</v>
+        <v>-9.689171734978153</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.277570799285295</v>
+        <v>-3.703270496106596</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.875306896134922</v>
+        <v>9.968994430467122</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6.539746003992415</v>
+        <v>2.393433683058804</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.2706960135815262</v>
+        <v>-9.479072037865135</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.030937138725735</v>
+        <v>1.899762265822456</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4.692681789398195</v>
+        <v>4.808085488338101</v>
       </c>
       <c r="B14" t="n">
-        <v>1.697400997666751</v>
+        <v>-6.932880869098746</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.396730149493496</v>
+        <v>-1.150131797089299</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-4.347883439531461</v>
+        <v>6.954113165537517</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.5452939552419174</v>
+        <v>4.074747403462728</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9300998636320361</v>
+        <v>-1.481094896793366</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-9.689171734978153</v>
+        <v>0.2588006748873219</v>
       </c>
       <c r="B16" t="n">
-        <v>-3.703270496106596</v>
+        <v>3.881287055857073</v>
       </c>
       <c r="C16" t="n">
-        <v>9.968994430467122</v>
+        <v>1.234817659153635</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2.393433683058804</v>
+        <v>-3.794551531473794</v>
       </c>
       <c r="B17" t="n">
-        <v>-9.479072037865135</v>
+        <v>-1.161946320066274</v>
       </c>
       <c r="C17" t="n">
-        <v>1.899762265822456</v>
+        <v>2.955449520372877</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4.808085488338101</v>
+        <v>-3.552903596092673</v>
       </c>
       <c r="B18" t="n">
-        <v>-6.932880869098746</v>
+        <v>6.386371462952866</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.150131797089299</v>
+        <v>1.291433391325612</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6.954113165537517</v>
+        <v>-2.714477875653444</v>
       </c>
       <c r="B19" t="n">
-        <v>4.074747403462728</v>
+        <v>9.294961256139448</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.481094896793366</v>
+        <v>-3.878858893233145</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.2588006748873219</v>
+        <v>2.263628258424627</v>
       </c>
       <c r="B20" t="n">
-        <v>3.881287055857073</v>
+        <v>-0.6571153846441176</v>
       </c>
       <c r="C20" t="n">
-        <v>1.234817659153635</v>
+        <v>-3.716604506268235</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-3.794551531473794</v>
+        <v>3.927821926042158</v>
       </c>
       <c r="B21" t="n">
-        <v>-1.161946320066274</v>
+        <v>-5.819554076475262</v>
       </c>
       <c r="C21" t="n">
-        <v>2.955449520372877</v>
+        <v>-0.2955599602531069</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2.031181216239927</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-3.260402391938594</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.723365492680494</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-5.857060266476065</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.9245907862981151</v>
+      </c>
+      <c r="C23" t="n">
+        <v>6.962034623996895</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-3.386064576167785</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.2334743749861628</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3.267812457739236</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>3.026514137492571</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-1.510893523693044</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-3.966962477740206</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>3.048832594179637</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-2.553463636660109</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-2.418893182978909</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2.535124498255125</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-1.166468461500665</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-2.345369084208624</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-3.627002197153437</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.152242738972691</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.2601947556523713</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-3.252175232943356</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1.719280733197323</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.07690661035332244</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-2.007904552945881</v>
+      </c>
+      <c r="B30" t="n">
+        <v>8.391763182247416</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-2.262497771020045</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2.766276373582728</v>
+      </c>
+      <c r="B31" t="n">
+        <v>6.427707840414632</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-4.763592523687029</v>
       </c>
     </row>
   </sheetData>
